--- a/ДЗ2.xlsx
+++ b/ДЗ2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HP/Desktop/goit-rdb-hw-02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDBE7E5-8AD8-EA41-BD82-12B2DB9A3EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBDF30E-A293-1C43-9378-0F6C72615E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{73F3DA65-42AB-F246-A946-FFC62047A184}"/>
   </bookViews>
@@ -55,30 +55,6 @@
     <t>product name, qnt</t>
   </si>
   <si>
-    <t>phone, 2</t>
-  </si>
-  <si>
-    <t>book, 3</t>
-  </si>
-  <si>
-    <t>Kyiv</t>
-  </si>
-  <si>
-    <t>Lviv</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Roman</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
     <t>qnt</t>
   </si>
   <si>
@@ -100,41 +76,70 @@
     <t>Products</t>
   </si>
   <si>
-    <t>CustID</t>
-  </si>
-  <si>
-    <t>ProductID</t>
-  </si>
-  <si>
     <t>START</t>
   </si>
   <si>
-    <t>3НФ</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Germ</t>
-  </si>
-  <si>
-    <t>Country of product</t>
-  </si>
-  <si>
     <t>Í›</t>
+  </si>
+  <si>
+    <t>Лептоп: 3,
+Мішка2</t>
+  </si>
+  <si>
+    <t>Прінтер:1</t>
+  </si>
+  <si>
+    <t>Мішка: 4</t>
+  </si>
+  <si>
+    <t>Хрещатік 1</t>
+  </si>
+  <si>
+    <t>Басейна 2</t>
+  </si>
+  <si>
+    <t>Компютерна 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мельнік </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шевченко </t>
+  </si>
+  <si>
+    <t>Коваленко</t>
+  </si>
+  <si>
+    <t>Лептоп</t>
+  </si>
+  <si>
+    <t>Мішка</t>
+  </si>
+  <si>
+    <t>Прінтер</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>3НФ=2НФ</t>
+  </si>
+  <si>
+    <t>всі неключові атрибути повністю залежать від ключа таблиці й не залежать від інших неключових атрибутів</t>
+  </si>
+  <si>
+    <t>В нашому випадку
+3НФ=2НФ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,6 +154,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -200,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -220,17 +233,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA766892-FC6C-D64C-8F8A-78AD7C70A2C0}">
-  <dimension ref="B2:O22"/>
+  <dimension ref="B2:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,15 +588,17 @@
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="12.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
-        <v>23</v>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -583,46 +616,68 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>101</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3">
-        <v>44927</v>
+        <v>18</v>
+      </c>
+      <c r="G3" s="12">
+        <v>45000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D4" s="2">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3">
-        <v>44928</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="12">
+        <v>45001</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D5" s="2">
+        <v>103</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="12">
+        <v>45002</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D7" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="34" x14ac:dyDescent="0.2">
@@ -633,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>2</v>
@@ -646,268 +701,329 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>101</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="3">
-        <v>44927</v>
+        <v>18</v>
+      </c>
+      <c r="H9" s="12">
+        <v>45000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D10" s="2">
+        <v>101</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="3">
-        <v>44928</v>
+        <v>18</v>
+      </c>
+      <c r="H10" s="12">
+        <v>45000</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>102</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="12">
+        <v>45001</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="H12" s="7" t="s">
+      <c r="D12" s="2">
+        <v>103</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="12">
+        <v>45002</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="H13" s="12"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="H15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="N15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="2:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="M16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2">
+        <v>101</v>
+      </c>
+      <c r="E17" s="12">
+        <v>45000</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="N12" s="7" t="s">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2">
+        <v>102</v>
+      </c>
+      <c r="E18" s="12">
+        <v>45001</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D19" s="2">
+        <v>103</v>
+      </c>
+      <c r="E19" s="12">
+        <v>45002</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="2:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="M19" s="13">
+        <v>2</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M20" s="13">
+        <v>3</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="M13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4" t="s">
+      <c r="D24" s="4"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>101</v>
+      </c>
+      <c r="C25" s="12">
+        <v>45000</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="N25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>44927</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>44928</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15" s="2">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2">
-        <v>2</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="H19"/>
-      <c r="I19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="2:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>44927</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="2">
-        <v>2</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3">
-        <v>44928</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="H22" s="2">
-        <v>2</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="2">
-        <v>3</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>28</v>
+    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>102</v>
+      </c>
+      <c r="C26" s="12">
+        <v>45001</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>103</v>
+      </c>
+      <c r="C27" s="12">
+        <v>45002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
